--- a/HLS_man/COP22/COP22_man_belize.xlsx
+++ b/HLS_man/COP22/COP22_man_belize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38AF090-1B62-4E6F-BF6D-83238609F7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02C23D0-7080-4E51-8527-C33CFE853F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>COP22_belize</t>
   </si>
@@ -243,9 +243,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>no?</t>
-  </si>
-  <si>
     <t xml:space="preserve">no </t>
   </si>
   <si>
@@ -255,63 +252,22 @@
     <t>measures</t>
   </si>
   <si>
-    <t>policy target, UNFCCC agreements and principles, other(temperature)</t>
-  </si>
-  <si>
     <t>global</t>
   </si>
   <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>sufficientarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mentioning of the global set target of 1.5 degrees. This set target is sufficientarian. </t>
-  </si>
-  <si>
     <t>egalitarian</t>
   </si>
   <si>
-    <t>other(inclusion), other(contribution)</t>
-  </si>
-  <si>
     <t>measures, other(knowledge)</t>
   </si>
   <si>
     <t>all countries should be allowed to contribute</t>
   </si>
   <si>
-    <t>policy target</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mentioning the setting of national targets. </t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles, other(GCF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.a. </t>
-  </si>
-  <si>
     <t>prioritarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mentioning the GCF, developed for the redistribution of financial resources to the worst off. </t>
-  </si>
-  <si>
-    <t>We seek 
-your continued engagement to further enhance the roadmap and scale up of 
-finances so as to increase predictability, foster confidence , and ensure that 
-the adaptation needs of SIDs are adequately addressed. Furthermore, where 
-adaptation is not an option, countries must have support for irreparable loss 
-and damage .</t>
-  </si>
-  <si>
-    <t>adaptation, UNFCCC agreements and principles, moral responsiblity, other(loss and damage)</t>
   </si>
   <si>
     <t>There are three key actions that we can and must take in Marrakech: 
@@ -327,13 +283,66 @@
     <t>present</t>
   </si>
   <si>
-    <t>focus on the GCF and support of the most vulnerable</t>
-  </si>
-  <si>
-    <t>other(GCF), UNFCCC agreements and principles, adaptation</t>
-  </si>
-  <si>
     <t xml:space="preserve">increase the allocation of finacial resources to SID (small island developing states), for the benefit of the worst off.  </t>
+  </si>
+  <si>
+    <t>new UNFCCC policy</t>
+  </si>
+  <si>
+    <t>nearby future</t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t>Advocating the need for an inclusive process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advocating for the value of global commitment and action. </t>
+  </si>
+  <si>
+    <t>financial resources, technological resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highlighting the value of transfer of technology and financial resources, no specific distribution preferred. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We seek 
+your continued engagement to further enhance the roadmap and scale up of 
+finances so as to increase predictability, foster confidence , and ensure that 
+the adaptation needs of SIDs are adequately addressed. </t>
+  </si>
+  <si>
+    <t>Furthermore, where 
+adaptation is not an option, countries must have support for irreparable loss 
+and damage .</t>
+  </si>
+  <si>
+    <t>other(support)</t>
+  </si>
+  <si>
+    <t>Indication of the value of support to ones that are subject to irreparable loss and damage</t>
+  </si>
+  <si>
+    <t>Focus on the support of the most vulnerable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the need for transparancy. No specific principle can be applied. </t>
+  </si>
+  <si>
+    <t>GCF, UNFCCC agreements and principles, adaptation</t>
+  </si>
+  <si>
+    <t>Loss anda damage</t>
+  </si>
+  <si>
+    <t>adaptation, UNFCCC agreements and principles, moral responsiblity, loss and damage</t>
+  </si>
+  <si>
+    <t>mitigation, adaptation, implementation</t>
+  </si>
+  <si>
+    <t>inclusion, contribution</t>
   </si>
 </sst>
 </file>
@@ -703,18 +712,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -751,7 +760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -759,7 +768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -767,7 +776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -775,7 +784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -783,7 +792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -791,7 +800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -799,7 +808,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -807,15 +816,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -823,7 +850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -831,7 +858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -839,7 +866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -847,7 +874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -855,7 +882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -863,41 +890,41 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -905,51 +932,33 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>53</v>
-      </c>
       <c r="H19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -957,7 +966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -965,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -973,33 +982,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -1007,15 +998,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1031,104 +1040,148 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
       </c>
       <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
         <v>65</v>
       </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="B31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
         <v>43</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s">
         <v>67</v>
       </c>
-      <c r="G31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="37" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/HLS_man/COP22/COP22_man_belize.xlsx
+++ b/HLS_man/COP22/COP22_man_belize.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02C23D0-7080-4E51-8527-C33CFE853F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7AA3D-A8CE-469E-8A9F-22BD774FE764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>COP22_belize</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -237,34 +231,13 @@
 I thank you, Mr. President.</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
     <t>financial resources</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
     <t>egalitarian</t>
-  </si>
-  <si>
-    <t>measures, other(knowledge)</t>
-  </si>
-  <si>
-    <t>all countries should be allowed to contribute</t>
   </si>
   <si>
     <t>prioritarian</t>
@@ -280,25 +253,13 @@
 support, especially for adaptation.</t>
   </si>
   <si>
-    <t>present</t>
-  </si>
-  <si>
     <t xml:space="preserve">increase the allocation of finacial resources to SID (small island developing states), for the benefit of the worst off.  </t>
   </si>
   <si>
     <t>new UNFCCC policy</t>
   </si>
   <si>
-    <t>nearby future</t>
-  </si>
-  <si>
     <t>general normative statement</t>
-  </si>
-  <si>
-    <t>Advocating the need for an inclusive process.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advocating for the value of global commitment and action. </t>
   </si>
   <si>
     <t>financial resources, technological resources</t>
@@ -318,31 +279,52 @@
 and damage .</t>
   </si>
   <si>
-    <t>other(support)</t>
-  </si>
-  <si>
-    <t>Indication of the value of support to ones that are subject to irreparable loss and damage</t>
-  </si>
-  <si>
-    <t>Focus on the support of the most vulnerable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescribing the need for transparancy. No specific principle can be applied. </t>
-  </si>
-  <si>
-    <t>GCF, UNFCCC agreements and principles, adaptation</t>
-  </si>
-  <si>
-    <t>Loss anda damage</t>
-  </si>
-  <si>
-    <t>adaptation, UNFCCC agreements and principles, moral responsiblity, loss and damage</t>
-  </si>
-  <si>
-    <t>mitigation, adaptation, implementation</t>
-  </si>
-  <si>
-    <t>inclusion, contribution</t>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral statement specifying the process that should commence. No specific distribution or motivation highlighted. </t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advocating for the value of global commitment, presenting an equality idea on the need for commitment by all. </t>
+  </si>
+  <si>
+    <t>inclusion</t>
+  </si>
+  <si>
+    <t>contribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all countries should be allowed to contribute, from an equality stance of everyone being included and minimizing inequalities. </t>
+  </si>
+  <si>
+    <t>needs based</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>priorty to worst off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indication of the value of support to ones that are subject to irreparable loss and damage, thus the worst off in this situation. </t>
+  </si>
+  <si>
+    <t>GCF</t>
+  </si>
+  <si>
+    <t>Focus on the support of the most vulnerable, calling for a distribution that supports this group</t>
+  </si>
+  <si>
+    <t>financial mechanisms</t>
+  </si>
+  <si>
+    <t>loss and damage</t>
   </si>
 </sst>
 </file>
@@ -712,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +705,7 @@
     <col min="1" max="1" width="36.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,451 +719,424 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="G32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
+      <c r="B37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
